--- a/results/mod2.corrupt_salience.eff.MN.xlsx
+++ b/results/mod2.corrupt_salience.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0853166665522514</v>
+        <v>-0.085318178692098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0440372145500159</v>
+        <v>0.0440368271324395</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.171628021049746</v>
+        <v>-0.171628773865096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000994687945243003</v>
+        <v>0.000992416480899649</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.93737654445314</v>
+        <v>-1.93742792675562</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0526993316728915</v>
+        <v>0.0526930556358316</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.32589200459826</v>
+        <v>0.325895026656393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0994514370541849</v>
+        <v>0.0994501963322878</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>0.130970769761305</v>
+        <v>0.130976223589672</v>
       </c>
       <c r="F3" t="n">
-        <v>0.520813239435215</v>
+        <v>0.520813829723115</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2768958825673</v>
+        <v>3.27696715215621</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00104955064177111</v>
+        <v>0.00104928575735715</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.102913466665745</v>
+        <v>-0.102914053683708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0450249985305963</v>
+        <v>0.045024671331303</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.191160842189683</v>
+        <v>-0.191160787908815</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.014666091141808</v>
+        <v>-0.0146673194586005</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.28569616933606</v>
+        <v>-2.28572581743995</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0222720395232491</v>
+        <v>0.0222703038950045</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.137661871380263</v>
+        <v>-0.137662794280588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0374316986500809</v>
+        <v>0.0374313231247956</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.211026652614578</v>
+        <v>-0.211026839498868</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.064297090145948</v>
+        <v>-0.0642987490623073</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.67768165338031</v>
+        <v>-3.67774320511252</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000235363451238251</v>
+        <v>0.00023530667842521</v>
       </c>
     </row>
   </sheetData>
